--- a/advanced_attributes_functions_old.xlsx
+++ b/advanced_attributes_functions_old.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JosephLee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B7C93F-3FEA-4C05-99E7-0807E44C72E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E68491A-EBDD-413F-BA33-A3ED6A24C2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{02B9613D-5AF3-488B-9894-4950DE6A006A}"/>
   </bookViews>
@@ -489,54 +489,6 @@
   </si>
   <si>
     <t>some-text</t>
-  </si>
-  <si>
-    <t>helloworld.contains("hello")</t>
-  </si>
-  <si>
-    <t>hello world.endsWith("old")</t>
-  </si>
-  <si>
-    <t>foo.matches("k.*")</t>
-  </si>
-  <si>
-    <t>hello.toUpper()</t>
-  </si>
-  <si>
-    <t>HEllO.toLower()</t>
-  </si>
-  <si>
-    <t>hello.base64Encode()</t>
-  </si>
-  <si>
-    <t>aGVsbG8=.base64Decode()</t>
-  </si>
-  <si>
-    <t>hello_world!.base64URLEncode()</t>
-  </si>
-  <si>
-    <t>aGVsbG9fd29ybGQh.base64URLDecode()</t>
-  </si>
-  <si>
-    <t>hello.size()</t>
-  </si>
-  <si>
-    <t>hello.substring(1,4)</t>
-  </si>
-  <si>
-    <t>hello.split("e")</t>
-  </si>
-  <si>
-    <t>hello.replaceAll("l","p")</t>
-  </si>
-  <si>
-    <t>some12#$text.matchAndReplaceAll("[^a-zA-Z]+", "-")</t>
-  </si>
-  <si>
-    <t>hello.indexOf("l")</t>
-  </si>
-  <si>
-    <t>hello.lastIndexOf("l")</t>
   </si>
   <si>
     <t>List functions</t>
@@ -1277,6 +1229,54 @@
       </rPr>
       <t>Attribute functions can be written to call out to external API endpoints to obtain values.</t>
     </r>
+  </si>
+  <si>
+    <t>"helloworld".contains("hello")</t>
+  </si>
+  <si>
+    <t>"hello world".endsWith("old")</t>
+  </si>
+  <si>
+    <t>"foo".matches("k.*")</t>
+  </si>
+  <si>
+    <t>"hello".toUpper()</t>
+  </si>
+  <si>
+    <t>"HEllO".toLower()</t>
+  </si>
+  <si>
+    <t>"hello".base64Encode()</t>
+  </si>
+  <si>
+    <t>"aGVsbG8=".base64Decode()</t>
+  </si>
+  <si>
+    <t>"hello_world!".base64URLEncode()</t>
+  </si>
+  <si>
+    <t>"aGVsbG9fd29ybGQh".base64URLDecode()</t>
+  </si>
+  <si>
+    <t>"hello".size()</t>
+  </si>
+  <si>
+    <t>"hello".substring(1,4)</t>
+  </si>
+  <si>
+    <t>"hello".split("e")</t>
+  </si>
+  <si>
+    <t>"hello".replaceAll("l","p")</t>
+  </si>
+  <si>
+    <t>"some12#$text".matchAndReplaceAll("[^a-zA-Z]+", "-")</t>
+  </si>
+  <si>
+    <t>"hello".indexOf("l")</t>
+  </si>
+  <si>
+    <t>"hello".lastIndexOf("l")</t>
   </si>
 </sst>
 </file>
@@ -1694,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278661CC-602B-4206-8DD8-904FAB689919}">
   <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1708,7 +1708,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="20" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1969,10 +1969,10 @@
         <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D22" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1983,10 +1983,10 @@
         <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D23" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1997,15 +1997,15 @@
         <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D24" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2096,7 +2096,7 @@
         <v>88</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2118,7 +2118,7 @@
         <v>93</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2178,7 +2178,7 @@
     </row>
     <row r="41" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2214,7 +2214,7 @@
         <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>346</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -2228,7 +2228,7 @@
         <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>347</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>348</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>116</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>349</v>
       </c>
       <c r="D47" t="s">
         <v>142</v>
@@ -2270,7 +2270,7 @@
         <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>155</v>
+        <v>350</v>
       </c>
       <c r="D48" t="s">
         <v>143</v>
@@ -2284,7 +2284,7 @@
         <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>351</v>
       </c>
       <c r="D49" t="s">
         <v>144</v>
@@ -2298,7 +2298,7 @@
         <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>352</v>
       </c>
       <c r="D50" t="s">
         <v>143</v>
@@ -2312,7 +2312,7 @@
         <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>353</v>
       </c>
       <c r="D51" t="s">
         <v>145</v>
@@ -2326,7 +2326,7 @@
         <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>159</v>
+        <v>354</v>
       </c>
       <c r="D52" t="s">
         <v>146</v>
@@ -2340,7 +2340,7 @@
         <v>128</v>
       </c>
       <c r="C53" t="s">
-        <v>160</v>
+        <v>355</v>
       </c>
       <c r="D53">
         <v>5</v>
@@ -2354,7 +2354,7 @@
         <v>130</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>356</v>
       </c>
       <c r="D54" t="s">
         <v>147</v>
@@ -2368,7 +2368,7 @@
         <v>132</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>357</v>
       </c>
       <c r="D55" t="s">
         <v>148</v>
@@ -2382,7 +2382,7 @@
         <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>163</v>
+        <v>358</v>
       </c>
       <c r="D56" t="s">
         <v>149</v>
@@ -2396,7 +2396,7 @@
         <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>164</v>
+        <v>359</v>
       </c>
       <c r="D57" t="s">
         <v>150</v>
@@ -2410,7 +2410,7 @@
         <v>138</v>
       </c>
       <c r="C58" t="s">
-        <v>165</v>
+        <v>360</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -2424,7 +2424,7 @@
         <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>166</v>
+        <v>361</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2454,13 +2454,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B62" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -2468,27 +2468,27 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B63" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C63" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D63" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B64" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C64" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -2496,13 +2496,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -2510,13 +2510,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B66" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C66" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -2524,77 +2524,77 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B67" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C67" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="D67" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B68" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C68" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D68" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" t="s">
         <v>184</v>
       </c>
-      <c r="C69" t="s">
-        <v>200</v>
-      </c>
       <c r="D69" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" t="s">
         <v>185</v>
       </c>
-      <c r="B70" t="s">
-        <v>186</v>
-      </c>
-      <c r="C70" t="s">
-        <v>201</v>
-      </c>
       <c r="D70" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B71" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C71" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D71" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2616,49 +2616,49 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74" t="s">
+        <v>188</v>
+      </c>
+      <c r="C74" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74" t="s">
         <v>203</v>
-      </c>
-      <c r="B74" t="s">
-        <v>204</v>
-      </c>
-      <c r="C74" t="s">
-        <v>224</v>
-      </c>
-      <c r="D74" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B75" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C75" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D75" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B76" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C76" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D76" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2680,63 +2680,63 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B79" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C79" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D79" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B80" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C80" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D80" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B81" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C81" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D81" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B82" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C82" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="D82" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2758,13 +2758,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B85" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C85" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D85" t="b">
         <v>1</v>
@@ -2772,13 +2772,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B86" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="C86" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="D86" t="b">
         <v>1</v>
@@ -2786,105 +2786,105 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B87" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C87" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D87" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B88" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C88" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="D88" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B89" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C89" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D89" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B90" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C90" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="D90" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B91" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C91" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D91" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B92" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="C92" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="D92" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B93" t="s">
+        <v>244</v>
+      </c>
+      <c r="C93" t="s">
         <v>260</v>
       </c>
-      <c r="C93" t="s">
-        <v>276</v>
-      </c>
       <c r="D93" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2906,41 +2906,41 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B96" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C96" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="D96" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B97" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C97" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="D97" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="B98" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="C98" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="D98">
         <v>17</v>
@@ -2948,13 +2948,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B99" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C99" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="D99">
         <v>16</v>
@@ -2962,13 +2962,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B100" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="C100" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -2976,13 +2976,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B101" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C101" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="D101">
         <v>228</v>
@@ -2990,13 +2990,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="B102" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C102" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="D102">
         <v>7</v>
@@ -3004,13 +3004,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B103" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C103" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D103">
         <v>2021</v>
@@ -3018,13 +3018,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="B104" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="C104" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="D104">
         <v>8</v>
@@ -3032,13 +3032,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B105" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="C105" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="D105">
         <v>24</v>
@@ -3046,13 +3046,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B106" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C106" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D106">
         <v>58</v>
@@ -3060,13 +3060,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B107" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="C107" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="D107">
         <v>642</v>
@@ -3074,13 +3074,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B108" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="C108" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="D108">
         <v>1629188698</v>
@@ -3088,35 +3088,35 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B109" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C109" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D109" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B110" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C110" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D110" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -3138,63 +3138,63 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B113" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C113" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="D113" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="B114" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C114" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="D114" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="B115" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="C115" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="D115" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B116" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C116" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="D116" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -3216,21 +3216,21 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="B119" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="C119" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="D119" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -3249,10 +3249,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -3260,55 +3260,55 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="B123" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="C123" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="D123" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B124" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C124" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="D124" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B125" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="C125" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="D125" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B126" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="C126" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/advanced_attributes_functions_old.xlsx
+++ b/advanced_attributes_functions_old.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JosephLee\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JosephLee\Downloads\ibm_watsonx_cel\ibm_watsonx_cel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E68491A-EBDD-413F-BA33-A3ED6A24C2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0B711F-F9E3-4496-8431-546611B45316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{02B9613D-5AF3-488B-9894-4950DE6A006A}"/>
   </bookViews>
@@ -426,9 +426,6 @@
   </si>
   <si>
     <t>$string.substring($begin,$end)</t>
-  </si>
-  <si>
-    <t>Returns the string between the $begin index (including) and $endindex (excluding) .</t>
   </si>
   <si>
     <t>$string.split($delim)</t>
@@ -1277,6 +1274,9 @@
   </si>
   <si>
     <t>"hello".lastIndexOf("l")</t>
+  </si>
+  <si>
+    <t>Returns the string between the $begin index (including) and $endindex (excluding) .</t>
   </si>
 </sst>
 </file>
@@ -1694,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278661CC-602B-4206-8DD8-904FAB689919}">
   <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1708,7 +1708,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="20" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1969,10 +1969,10 @@
         <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1983,10 +1983,10 @@
         <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1997,15 +1997,15 @@
         <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2096,7 +2096,7 @@
         <v>88</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2118,7 +2118,7 @@
         <v>93</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2178,7 +2178,7 @@
     </row>
     <row r="41" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2214,7 +2214,7 @@
         <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -2228,7 +2228,7 @@
         <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>116</v>
       </c>
       <c r="C47" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2270,10 +2270,10 @@
         <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2284,10 +2284,10 @@
         <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2298,10 +2298,10 @@
         <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2312,10 +2312,10 @@
         <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2326,10 +2326,10 @@
         <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2340,7 +2340,7 @@
         <v>128</v>
       </c>
       <c r="C53" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D53">
         <v>5</v>
@@ -2351,66 +2351,66 @@
         <v>129</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>361</v>
       </c>
       <c r="C54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" t="s">
         <v>131</v>
       </c>
-      <c r="B55" t="s">
-        <v>132</v>
-      </c>
       <c r="C55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" t="s">
         <v>133</v>
       </c>
-      <c r="B56" t="s">
-        <v>134</v>
-      </c>
       <c r="C56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" t="s">
         <v>135</v>
       </c>
-      <c r="B57" t="s">
-        <v>136</v>
-      </c>
       <c r="C57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" t="s">
         <v>137</v>
       </c>
-      <c r="B58" t="s">
-        <v>138</v>
-      </c>
       <c r="C58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -2418,13 +2418,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" t="s">
         <v>139</v>
       </c>
-      <c r="B59" t="s">
-        <v>140</v>
-      </c>
       <c r="C59" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2454,13 +2454,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" t="s">
         <v>152</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>153</v>
-      </c>
-      <c r="C62" t="s">
-        <v>154</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -2468,27 +2468,27 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" t="s">
         <v>155</v>
       </c>
-      <c r="B63" t="s">
-        <v>156</v>
-      </c>
       <c r="C63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" t="s">
         <v>157</v>
       </c>
-      <c r="B64" t="s">
-        <v>158</v>
-      </c>
       <c r="C64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -2496,13 +2496,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" t="s">
         <v>159</v>
       </c>
-      <c r="B65" t="s">
-        <v>160</v>
-      </c>
       <c r="C65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -2510,13 +2510,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" t="s">
         <v>161</v>
       </c>
-      <c r="B66" t="s">
-        <v>162</v>
-      </c>
       <c r="C66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -2524,77 +2524,77 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" t="s">
         <v>163</v>
       </c>
-      <c r="B67" t="s">
-        <v>164</v>
-      </c>
       <c r="C67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D67" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" t="s">
         <v>165</v>
       </c>
-      <c r="B68" t="s">
-        <v>166</v>
-      </c>
       <c r="C68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>166</v>
+      </c>
+      <c r="B69" t="s">
         <v>167</v>
       </c>
-      <c r="B69" t="s">
-        <v>168</v>
-      </c>
       <c r="C69" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" t="s">
         <v>169</v>
       </c>
-      <c r="B70" t="s">
-        <v>170</v>
-      </c>
       <c r="C70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D70" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" t="s">
         <v>171</v>
       </c>
-      <c r="B71" t="s">
-        <v>172</v>
-      </c>
       <c r="C71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D71" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2616,49 +2616,49 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74" t="s">
         <v>187</v>
       </c>
-      <c r="B74" t="s">
-        <v>188</v>
-      </c>
       <c r="C74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>188</v>
+      </c>
+      <c r="B75" t="s">
         <v>189</v>
       </c>
-      <c r="B75" t="s">
-        <v>190</v>
-      </c>
       <c r="C75" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>190</v>
+      </c>
+      <c r="B76" t="s">
         <v>191</v>
       </c>
-      <c r="B76" t="s">
-        <v>192</v>
-      </c>
       <c r="C76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2680,63 +2680,63 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>211</v>
+      </c>
+      <c r="B79" t="s">
         <v>212</v>
       </c>
-      <c r="B79" t="s">
-        <v>213</v>
-      </c>
       <c r="C79" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>213</v>
+      </c>
+      <c r="B80" t="s">
         <v>214</v>
       </c>
-      <c r="B80" t="s">
-        <v>215</v>
-      </c>
       <c r="C80" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>215</v>
+      </c>
+      <c r="B81" t="s">
         <v>216</v>
       </c>
-      <c r="B81" t="s">
-        <v>217</v>
-      </c>
       <c r="C81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>217</v>
+      </c>
+      <c r="B82" t="s">
         <v>218</v>
       </c>
-      <c r="B82" t="s">
-        <v>219</v>
-      </c>
       <c r="C82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D82" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2758,13 +2758,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>227</v>
+      </c>
+      <c r="B85" t="s">
         <v>228</v>
       </c>
-      <c r="B85" t="s">
-        <v>229</v>
-      </c>
       <c r="C85" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D85" t="b">
         <v>1</v>
@@ -2772,13 +2772,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>229</v>
+      </c>
+      <c r="B86" t="s">
         <v>230</v>
       </c>
-      <c r="B86" t="s">
-        <v>231</v>
-      </c>
       <c r="C86" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D86" t="b">
         <v>1</v>
@@ -2786,105 +2786,105 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>231</v>
+      </c>
+      <c r="B87" t="s">
         <v>232</v>
       </c>
-      <c r="B87" t="s">
-        <v>233</v>
-      </c>
       <c r="C87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D87" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B88" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>234</v>
+      </c>
+      <c r="B89" t="s">
         <v>235</v>
       </c>
-      <c r="B89" t="s">
-        <v>236</v>
-      </c>
       <c r="C89" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>236</v>
+      </c>
+      <c r="B90" t="s">
         <v>237</v>
       </c>
-      <c r="B90" t="s">
-        <v>238</v>
-      </c>
       <c r="C90" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>238</v>
+      </c>
+      <c r="B91" t="s">
         <v>239</v>
       </c>
-      <c r="B91" t="s">
-        <v>240</v>
-      </c>
       <c r="C91" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>240</v>
+      </c>
+      <c r="B92" t="s">
         <v>241</v>
       </c>
-      <c r="B92" t="s">
-        <v>242</v>
-      </c>
       <c r="C92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>242</v>
+      </c>
+      <c r="B93" t="s">
         <v>243</v>
       </c>
-      <c r="B93" t="s">
-        <v>244</v>
-      </c>
       <c r="C93" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2906,41 +2906,41 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>260</v>
+      </c>
+      <c r="B96" t="s">
         <v>261</v>
       </c>
-      <c r="B96" t="s">
-        <v>262</v>
-      </c>
       <c r="C96" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D96" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>262</v>
+      </c>
+      <c r="B97" t="s">
         <v>263</v>
       </c>
-      <c r="B97" t="s">
-        <v>264</v>
-      </c>
       <c r="C97" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>264</v>
+      </c>
+      <c r="B98" t="s">
         <v>265</v>
       </c>
-      <c r="B98" t="s">
-        <v>266</v>
-      </c>
       <c r="C98" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D98">
         <v>17</v>
@@ -2948,13 +2948,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>266</v>
+      </c>
+      <c r="B99" t="s">
         <v>267</v>
       </c>
-      <c r="B99" t="s">
-        <v>268</v>
-      </c>
       <c r="C99" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D99">
         <v>16</v>
@@ -2962,13 +2962,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>268</v>
+      </c>
+      <c r="B100" t="s">
         <v>269</v>
       </c>
-      <c r="B100" t="s">
-        <v>270</v>
-      </c>
       <c r="C100" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -2976,13 +2976,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>270</v>
+      </c>
+      <c r="B101" t="s">
         <v>271</v>
       </c>
-      <c r="B101" t="s">
-        <v>272</v>
-      </c>
       <c r="C101" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D101">
         <v>228</v>
@@ -2990,13 +2990,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>272</v>
+      </c>
+      <c r="B102" t="s">
         <v>273</v>
       </c>
-      <c r="B102" t="s">
-        <v>274</v>
-      </c>
       <c r="C102" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D102">
         <v>7</v>
@@ -3004,13 +3004,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>274</v>
+      </c>
+      <c r="B103" t="s">
         <v>275</v>
       </c>
-      <c r="B103" t="s">
-        <v>276</v>
-      </c>
       <c r="C103" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D103">
         <v>2021</v>
@@ -3018,13 +3018,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>276</v>
+      </c>
+      <c r="B104" t="s">
         <v>277</v>
       </c>
-      <c r="B104" t="s">
-        <v>278</v>
-      </c>
       <c r="C104" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D104">
         <v>8</v>
@@ -3032,13 +3032,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>278</v>
+      </c>
+      <c r="B105" t="s">
         <v>279</v>
       </c>
-      <c r="B105" t="s">
-        <v>280</v>
-      </c>
       <c r="C105" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D105">
         <v>24</v>
@@ -3046,13 +3046,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>280</v>
+      </c>
+      <c r="B106" t="s">
         <v>281</v>
       </c>
-      <c r="B106" t="s">
-        <v>282</v>
-      </c>
       <c r="C106" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D106">
         <v>58</v>
@@ -3060,13 +3060,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>282</v>
+      </c>
+      <c r="B107" t="s">
         <v>283</v>
       </c>
-      <c r="B107" t="s">
-        <v>284</v>
-      </c>
       <c r="C107" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D107">
         <v>642</v>
@@ -3074,13 +3074,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>284</v>
+      </c>
+      <c r="B108" t="s">
         <v>285</v>
       </c>
-      <c r="B108" t="s">
-        <v>286</v>
-      </c>
       <c r="C108" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D108">
         <v>1629188698</v>
@@ -3088,35 +3088,35 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>286</v>
+      </c>
+      <c r="B109" t="s">
         <v>287</v>
       </c>
-      <c r="B109" t="s">
-        <v>288</v>
-      </c>
       <c r="C109" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D109" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>288</v>
+      </c>
+      <c r="B110" t="s">
         <v>289</v>
       </c>
-      <c r="B110" t="s">
-        <v>290</v>
-      </c>
       <c r="C110" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -3138,63 +3138,63 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>309</v>
+      </c>
+      <c r="B113" t="s">
         <v>310</v>
       </c>
-      <c r="B113" t="s">
-        <v>311</v>
-      </c>
       <c r="C113" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D113" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>311</v>
+      </c>
+      <c r="B114" t="s">
         <v>312</v>
       </c>
-      <c r="B114" t="s">
-        <v>313</v>
-      </c>
       <c r="C114" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D114" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>313</v>
+      </c>
+      <c r="B115" t="s">
         <v>314</v>
       </c>
-      <c r="B115" t="s">
-        <v>315</v>
-      </c>
       <c r="C115" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D115" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>315</v>
+      </c>
+      <c r="B116" t="s">
         <v>316</v>
       </c>
-      <c r="B116" t="s">
-        <v>317</v>
-      </c>
       <c r="C116" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D116" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -3216,21 +3216,21 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
+        <v>324</v>
+      </c>
+      <c r="B119" t="s">
         <v>325</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
+        <v>324</v>
+      </c>
+      <c r="D119" t="s">
         <v>326</v>
-      </c>
-      <c r="C119" t="s">
-        <v>325</v>
-      </c>
-      <c r="D119" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -3249,10 +3249,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -3260,55 +3260,55 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>329</v>
+      </c>
+      <c r="B123" t="s">
         <v>330</v>
       </c>
-      <c r="B123" t="s">
-        <v>331</v>
-      </c>
       <c r="C123" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D123" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
+        <v>331</v>
+      </c>
+      <c r="B124" t="s">
         <v>332</v>
       </c>
-      <c r="B124" t="s">
-        <v>333</v>
-      </c>
       <c r="C124" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D124" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
+        <v>333</v>
+      </c>
+      <c r="B125" t="s">
         <v>334</v>
       </c>
-      <c r="B125" t="s">
-        <v>335</v>
-      </c>
       <c r="C125" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D125" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
+        <v>335</v>
+      </c>
+      <c r="B126" t="s">
         <v>336</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>337</v>
-      </c>
-      <c r="C126" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>
